--- a/docs/Zeolite weight.xlsx
+++ b/docs/Zeolite weight.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_git_c\he\ProjectApollo\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F513209-4EC2-48AA-9317-B350E73AF3DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD7215B-1FA0-4710-A672-F773960B42C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{748542B8-33C7-48C3-B475-2B19D555CA52}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{748542B8-33C7-48C3-B475-2B19D555CA52}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Zeolite weight" sheetId="1" r:id="rId1"/>
+    <sheet name="Air composition" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>Volume</t>
   </si>
@@ -69,10 +70,34 @@
     <t>inch^3</t>
   </si>
   <si>
-    <t>Apollo v4</t>
-  </si>
-  <si>
     <t>OxiKit v1</t>
+  </si>
+  <si>
+    <t>Apollo v2</t>
+  </si>
+  <si>
+    <t>1 tank</t>
+  </si>
+  <si>
+    <t>2 tanks</t>
+  </si>
+  <si>
+    <t>Argon concentration</t>
+  </si>
+  <si>
+    <t>O2 concentration</t>
+  </si>
+  <si>
+    <t>% volumetric</t>
+  </si>
+  <si>
+    <t>N2 concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon dioxide </t>
+  </si>
+  <si>
+    <t>O2 + Argon</t>
   </si>
 </sst>
 </file>
@@ -108,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978EFE35-D62E-4D33-ACEF-B4C2BB86675B}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,50 +463,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>2000</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>4000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>0.62</v>
-      </c>
-      <c r="E2">
-        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <f>D1*D2</f>
-        <v>1240</v>
+        <v>0.62</v>
       </c>
       <c r="E3">
-        <f>E1*E2</f>
-        <v>2480</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -488,52 +506,56 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>D2*D3</f>
+        <v>1240</v>
+      </c>
+      <c r="E4">
+        <f>E2*E3</f>
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <f>D3/(0.453592*1000)</f>
+      <c r="D5">
+        <f>D4/(0.453592*1000)</f>
         <v>2.7337342810278842</v>
       </c>
-      <c r="E4">
-        <f>E3/(0.453592*1000)</f>
+      <c r="E5">
+        <f>E4/(0.453592*1000)</f>
         <v>5.4674685620557684</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
         <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>9</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D13">
-        <f>D11*3.14*(D12/2)^2</f>
-        <v>120.105</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -541,38 +563,34 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <f>D13*(2.54^3)</f>
-        <v>1968.16832172</v>
+        <f>D12*3.14*(D13/2)^2</f>
+        <v>120.105</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>0.62</v>
+        <f>D14*(2.54^3)</f>
+        <v>1968.16832172</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <f>D14*D15</f>
-        <v>1220.2643594664</v>
-      </c>
-      <c r="E16">
-        <f>D16*2</f>
-        <v>2440.5287189328001</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
@@ -580,15 +598,130 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <f>D15*D16</f>
+        <v>1220.2643594664</v>
+      </c>
+      <c r="E17">
+        <f>D17*2</f>
+        <v>2440.5287189328001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D17">
-        <f>D16/(0.453592*1000)</f>
+      <c r="D18">
+        <f>D17/(0.453592*1000)</f>
         <v>2.6902246059595409</v>
       </c>
-      <c r="E17">
-        <f>E16/(0.453592*1000)</f>
+      <c r="E18">
+        <f>E17/(0.453592*1000)</f>
         <v>5.3804492119190819</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059787E1-C7F0-410D-BDD8-6CEAEE78D477}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.20949999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.78090000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <f>C1+C2</f>
+        <v>0.21879999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C1/C5</f>
+        <v>4.2504570383912248E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C2/C5</f>
+        <v>0.95749542961608769</v>
       </c>
     </row>
   </sheetData>
